--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -70,67 +70,64 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>great</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
@@ -142,64 +139,61 @@
     <t>easy</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>new</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>make</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
@@ -569,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.404040404040404</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3488372093023256</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1675675675675676</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +782,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +808,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +834,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7445887445887446</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M8">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +860,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7012987012987013</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -892,13 +886,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.684931506849315</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -918,13 +912,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6813559322033899</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L11">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -944,13 +938,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.671875</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -970,13 +964,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6491228070175439</v>
+        <v>0.6581059390048154</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>820</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>820</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1022,13 +1016,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6468699839486356</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L15">
-        <v>806</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>806</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>440</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1048,13 +1042,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1074,13 +1068,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1100,13 +1094,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1126,13 +1120,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5942857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1152,25 +1146,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5882352941176471</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L20">
+        <v>43</v>
+      </c>
+      <c r="M20">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>40</v>
-      </c>
-      <c r="M20">
-        <v>40</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1178,13 +1172,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5846153846153846</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1196,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1204,13 +1198,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.578125</v>
+        <v>0.51</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1230,13 +1224,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5526315789473685</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1256,13 +1250,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1282,13 +1276,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5269461077844312</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L25">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1308,13 +1302,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5060240963855421</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1334,13 +1328,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4457831325301205</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L27">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M27">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1360,13 +1354,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.43</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1378,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1386,13 +1380,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4285714285714285</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1404,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1412,13 +1406,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4142156862745098</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L30">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="M30">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1430,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1438,13 +1432,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3618677042801556</v>
+        <v>0.3342465753424658</v>
       </c>
       <c r="L31">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="M31">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1456,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>164</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1464,13 +1458,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3452054794520548</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L32">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1482,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>478</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1490,13 +1484,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3237410071942446</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1508,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1516,13 +1510,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3157894736842105</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1542,13 +1536,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.2966507177033493</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L35">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1560,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>147</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1568,13 +1562,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.2882882882882883</v>
+        <v>0.263724434876211</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1586,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>79</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1594,13 +1588,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.2871287128712871</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1612,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1620,13 +1614,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2744886975242196</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L38">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="M38">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1638,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>674</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1646,25 +1640,25 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2685185185185185</v>
+        <v>0.2087067861715749</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1672,25 +1666,25 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2582781456953642</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>112</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1698,13 +1692,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2214765100671141</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1716,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>116</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1724,13 +1718,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.219435736677116</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="L42">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M42">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1742,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>249</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1750,13 +1744,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2158940397350993</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="L43">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="M43">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1768,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>592</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1776,25 +1770,25 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2148337595907928</v>
+        <v>0.1486988847583643</v>
       </c>
       <c r="L44">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="M44">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>614</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1802,25 +1796,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1734417344173442</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>305</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1828,13 +1822,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1644736842105263</v>
+        <v>0.125</v>
       </c>
       <c r="L46">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M46">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1846,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1854,25 +1848,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1626794258373206</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L47">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>350</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1880,13 +1874,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.15</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L48">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1898,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>374</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1906,13 +1900,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.134020618556701</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1924,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>252</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1932,13 +1926,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1328413284132841</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1950,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>235</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1958,25 +1952,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1313868613138686</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L51">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M51">
         <v>54</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>357</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1984,25 +1978,25 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1111111111111111</v>
+        <v>0.07096171802054155</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>240</v>
+        <v>995</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2010,13 +2004,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.09195402298850575</v>
+        <v>0.06320346320346321</v>
       </c>
       <c r="L53">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M53">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N53">
         <v>0.97</v>
@@ -2028,59 +2022,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54">
-        <v>0.08309990662931839</v>
-      </c>
-      <c r="L54">
-        <v>89</v>
-      </c>
-      <c r="M54">
-        <v>90</v>
-      </c>
-      <c r="N54">
-        <v>0.99</v>
-      </c>
-      <c r="O54">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K55">
-        <v>0.05276816608996539</v>
-      </c>
-      <c r="L55">
-        <v>61</v>
-      </c>
-      <c r="M55">
-        <v>62</v>
-      </c>
-      <c r="N55">
-        <v>0.98</v>
-      </c>
-      <c r="O55">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1095</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
